--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisem\Desktop\Python_Serial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA0CC08-F225-4F88-B188-13B4CCCA00FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA23ABC-A24D-4BF8-B492-1B3834F3018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3072" windowWidth="16656" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="-108" windowWidth="22428" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Test_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,68 +412,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B13:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -481,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -489,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -497,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -505,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -513,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -521,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -529,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -537,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -545,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -553,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -561,22 +516,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
